--- a/medicine/Enfance/Jules_Chancel/Jules_Chancel.xlsx
+++ b/medicine/Enfance/Jules_Chancel/Jules_Chancel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Chancel, né le 25 septembre 1867 à Marseille et mort le 18 janvier 1944 à Versailles[1], est un journaliste et écrivain français, auteur notamment de livres pour enfants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Chancel, né le 25 septembre 1867 à Marseille et mort le 18 janvier 1944 à Versailles, est un journaliste et écrivain français, auteur notamment de livres pour enfants.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Gabriel Jules Chancel est le neveu de Jules Charles-Roux et le père de Jean-Louis Chancel et de Ludovic Chancel.
 Engagé volontaire dans l'armée, il est détaché à l'état-major britannique comme correspondant de guerre du journal L'Illustration.
@@ -519,7 +533,7 @@
 Auteur dramaturge et de livres pour enfants, ses séries les plus connues sont  Les enfants à travers l'histoire ou Les enfants aux colonies. Plusieurs de ses œuvres furent couronnées par l'Académie française.
 Ces livres furent illustrés par des illustrateurs  de l'époque comme Raymond de La Nézière ou Jules Fontanez.
 Il est directeur de l'Agence des droits d'auteurs et de la Société des gens de lettres pour l'application de la loi de protection des droits d'auteur en Amérique du Sud de 1911 à 1914. Il est également délégué de la Société des auteurs et de la Société des gens de lettres pour l'application de la loi Clemenceau en Argentine et au Brésil.
-Il est inhumé au cimetière des Gonards de Versailles[2].
+Il est inhumé au cimetière des Gonards de Versailles.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Enfants à travers l'histoire
@@ -601,7 +617,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rêve de valse, opérette en 3 actes, adaptation de Léon Xanrof et Jules Chancel, d'après Felix Dörmann et Leopold Jacobson, musique d'Oscar Straus, Paris, Théâtre de l'Apollo, 1910</t>
         </is>
